--- a/output/Lesotho_unformatted.xlsx
+++ b/output/Lesotho_unformatted.xlsx
@@ -12,7 +12,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="194">
+  <si>
+    <t xml:space="preserve">destination_Organization_id</t>
+  </si>
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -83,9 +86,6 @@
     <t xml:space="preserve">destination_Plan_id</t>
   </si>
   <si>
-    <t xml:space="preserve">destination_Organization_id</t>
-  </si>
-  <si>
     <t xml:space="preserve">destination_GlobalCluster_id</t>
   </si>
   <si>
@@ -194,9 +194,15 @@
     <t xml:space="preserve">source_Cluster_name</t>
   </si>
   <si>
+    <t xml:space="preserve">Recipient.Organization.Type</t>
+  </si>
+  <si>
     <t xml:space="preserve">analysis_date</t>
   </si>
   <si>
+    <t xml:space="preserve">flow_date_type</t>
+  </si>
+  <si>
     <t xml:space="preserve">emergency_boundary</t>
   </si>
   <si>
@@ -209,373 +215,385 @@
     <t xml:space="preserve">potential_overlap_flag</t>
   </si>
   <si>
+    <t xml:space="preserve">2915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-01-08T04:25:12.737Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-01-07T00:00:00Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-01-03T00:00:00Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drought affected population have access to lifesaving nutrition, safe water and hygiene services (part of 19-RR-CEF-119)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-01-04T00:00:00Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Traditional aid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">internal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">single</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central Emergency Response Fund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LSO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesotho Flash Appeal 2019-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Nations Children's Fund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nutrition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesotho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From CERF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-01-08T00:00:00.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19-RR-CEF-119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unearmarked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUTRITION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UN agency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disbursement date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incoming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-01-08T04:25:13.976Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Sanitation Hygiene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WATER, SANITATION AND HYGIENE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-02T16:17:38.747Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-03-19T00:00:00Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-01-30T00:00:00Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Counter Trafficking in Persons and Smuggling of Migrants through Victims of Trafficking  (VoT) Crisis Shelter Rehabilitation and Building Immigration Department's Capacities in Lesotho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash transfer programming (CTP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">commitment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">incoming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International Organization for Migration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-03-19T00:00:00.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JPN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROTECTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reported date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-01-29T04:25:16.055Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-01-06T00:00:00Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-12-31T00:00:00Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support to Drought affected populations in the Southern districts of Lesotho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-01-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World Food Programme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food Security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-01-29T00:00:00.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19-RR-WFP-075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOOD SECURITY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-09-19T02:25:23.378Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-18T00:00:00Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drought and COVID-19 Pandemic in Lesotho: Agriculture, Food Security and Protection Support to Vulnerable Communities (part of ECHO/-SF/EDF/2020/01012)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-09-18T00:00:00Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">European Commission's Humanitarian Aid and Civil Protection Department</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From EDRIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-09-18T00:00:00.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3900000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECHO/-SF/EDF/2020/01012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">approved date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-09-19T02:25:23.635Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coronavirus disease Outbreak - COVID -19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-10T10:28:52.952Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-09-23T00:00:00Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supporting life-saving multi-sectoral interventions responding to the impact of climate shocks on children in Southern Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-04T00:00:00Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom, Government of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-04T00:00:00.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300531-103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-02-10T09:59:58.779Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preventing and Responding to GBV in Drought Affected Communities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Nations Population Fund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-01-31T00:00:00.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UOH27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-01-29T04:25:16.959Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response to the health effects of drought in Lesotho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World Health Organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19-RR-WHO-058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEALTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4399</t>
+  </si>
+  <si>
     <t xml:space="preserve">2020-01-08T04:25:15.086Z</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-01-07T00:00:00Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-12-31T00:00:00Z</t>
-  </si>
-  <si>
     <t xml:space="preserve">FAO Integrated Emergency Support to Affected Communities caused by persistent Drought conditions in Lesotho</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-01-01T00:00:00Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Standard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Traditional aid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">internal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">single</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Central Emergency Response Fund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LSO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesotho Flash Appeal 2019-2020</t>
-  </si>
-  <si>
     <t xml:space="preserve">Food &amp; Agriculture Organization of the United Nations</t>
   </si>
   <si>
-    <t xml:space="preserve">Food Security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesotho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From CERF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-01-08T00:00:00.000Z</t>
-  </si>
-  <si>
     <t xml:space="preserve">19-RR-FAO-038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unearmarked</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FOOD SECURITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incoming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-02-10T09:59:58.779Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preventing and Responding to GBV in Drought Affected Communities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Nations Population Fund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-01-31T00:00:00.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UOH27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROTECTION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-01-29T04:25:16.055Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-01-06T00:00:00Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Support to Drought affected populations in the Southern districts of Lesotho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">World Food Programme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-01-29T00:00:00.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19-RR-WFP-075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-01-29T04:25:16.959Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Response to the health effects of drought in Lesotho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">World Health Organization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Health</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19-RR-WHO-058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HEALTH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-01-08T04:25:12.737Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-01-03T00:00:00Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drought affected population have access to lifesaving nutrition, safe water and hygiene services (part of 19-RR-CEF-119)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-01-04T00:00:00Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Nations Children's Fund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nutrition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19-RR-CEF-119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUTRITION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-01-08T04:25:13.976Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Sanitation Hygiene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WASH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WATER, SANITATION AND HYGIENE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-04-02T16:17:38.747Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-03-19T00:00:00Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-01-30T00:00:00Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Counter Trafficking in Persons and Smuggling of Migrants through Victims of Trafficking  (VoT) Crisis Shelter Rehabilitation and Building Immigration Department's Capacities in Lesotho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cash transfer programming (CTP)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">commitment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">incoming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International Organization for Migration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-03-19T00:00:00.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JPN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-09-19T02:25:23.378Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-08-18T00:00:00Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drought and COVID-19 Pandemic in Lesotho: Agriculture, Food Security and Protection Support to Vulnerable Communities (part of ECHO/-SF/EDF/2020/01012)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-09-18T00:00:00Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">European Commission's Humanitarian Aid and Civil Protection Department</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From EDRIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-09-18T00:00:00.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3900000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECHO/-SF/EDF/2020/01012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-09-19T02:25:23.635Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">500000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coronavirus disease Outbreak - COVID -19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-11-10T10:28:52.952Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-09-23T00:00:00Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supporting life-saving multi-sectoral interventions responding to the impact of climate shocks on children in Southern Africa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-11-04T00:00:00Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GBP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-11-04T00:00:00.000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GBR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300531-103</t>
   </si>
 </sst>
 </file>
@@ -1109,116 +1127,122 @@
       <c r="BM1" t="s">
         <v>64</v>
       </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>203499</v>
+      <c r="A2" t="s">
+        <v>67</v>
       </c>
       <c r="B2" t="n">
-        <v>879992</v>
+        <v>203590</v>
       </c>
       <c r="C2" t="n">
-        <v>2019</v>
-      </c>
-      <c r="D2" t="s">
-        <v>65</v>
+        <v>195001</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2020</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M2"/>
-      <c r="N2" t="s">
-        <v>74</v>
-      </c>
-      <c r="O2" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="M2" t="s">
+        <v>76</v>
+      </c>
+      <c r="N2"/>
+      <c r="O2" t="s">
+        <v>77</v>
+      </c>
+      <c r="P2" s="1" t="n">
         <v>43923</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>3</v>
       </c>
-      <c r="Q2" t="s">
-        <v>75</v>
-      </c>
       <c r="R2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W2" t="s">
+        <v>83</v>
+      </c>
+      <c r="X2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>165926</v>
+      </c>
+      <c r="AC2" t="s">
         <v>81</v>
       </c>
-      <c r="X2" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="AD2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI2" t="s">
         <v>83</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>165918</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>91</v>
       </c>
       <c r="AJ2" t="s">
         <v>92</v>
       </c>
       <c r="AK2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AL2" t="s">
         <v>93</v>
@@ -1228,48 +1252,48 @@
       </c>
       <c r="AN2"/>
       <c r="AO2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AP2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AQ2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AR2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AS2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AT2" t="s">
         <v>95</v>
       </c>
       <c r="AU2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AV2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AW2"/>
       <c r="AX2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AY2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AZ2" t="s">
         <v>96</v>
       </c>
       <c r="BA2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="BB2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="BC2"/>
       <c r="BD2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="BE2" t="s">
         <v>97</v>
@@ -1278,1717 +1302,1777 @@
         <v>98</v>
       </c>
       <c r="BG2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="BH2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BI2" s="1" t="n">
-        <v>43830</v>
-      </c>
-      <c r="BJ2"/>
+        <v>75</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ2" s="1" t="n">
+        <v>43833</v>
+      </c>
       <c r="BK2" t="s">
-        <v>99</v>
-      </c>
-      <c r="BL2" t="b">
+        <v>100</v>
+      </c>
+      <c r="BL2"/>
+      <c r="BM2" t="s">
+        <v>101</v>
+      </c>
+      <c r="BN2" t="b">
         <v>0</v>
       </c>
-      <c r="BM2" t="b">
+      <c r="BO2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>203500</v>
+      <c r="A3" t="s">
+        <v>67</v>
       </c>
       <c r="B3" t="n">
-        <v>300001</v>
+        <v>203591</v>
       </c>
       <c r="C3" t="n">
-        <v>2019</v>
-      </c>
-      <c r="D3" t="s">
-        <v>100</v>
+        <v>555001</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2020</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="F3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G3" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="H3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L3" t="s">
-        <v>73</v>
-      </c>
-      <c r="M3"/>
-      <c r="N3" t="s">
-        <v>74</v>
-      </c>
-      <c r="O3" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="M3" t="s">
+        <v>76</v>
+      </c>
+      <c r="N3"/>
+      <c r="O3" t="s">
+        <v>77</v>
+      </c>
+      <c r="P3" s="1" t="n">
         <v>43923</v>
       </c>
-      <c r="P3" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>75</v>
+      <c r="Q3" t="n">
+        <v>3</v>
       </c>
       <c r="R3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="X3" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="Y3" t="s">
         <v>103</v>
       </c>
       <c r="Z3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AA3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AB3" t="n">
-        <v>165930</v>
+        <v>165927</v>
       </c>
       <c r="AC3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AD3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AE3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF3" t="s">
         <v>104</v>
       </c>
-      <c r="AF3" t="s">
-        <v>105</v>
-      </c>
       <c r="AG3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH3" t="s">
         <v>105</v>
       </c>
       <c r="AI3" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AJ3" t="s">
         <v>92</v>
       </c>
       <c r="AK3" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AL3" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="AM3" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="AN3"/>
       <c r="AO3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AP3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AQ3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AR3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AS3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AT3" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="AU3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AV3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AW3"/>
       <c r="AX3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AY3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AZ3" t="s">
         <v>96</v>
       </c>
       <c r="BA3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="BB3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="BC3"/>
       <c r="BD3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="BE3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="BF3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="BG3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="BH3" t="s">
-        <v>72</v>
-      </c>
-      <c r="BI3" s="1" t="n">
-        <v>43830</v>
-      </c>
-      <c r="BJ3"/>
+        <v>75</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ3" s="1" t="n">
+        <v>43833</v>
+      </c>
       <c r="BK3" t="s">
-        <v>99</v>
-      </c>
-      <c r="BL3" t="b">
+        <v>100</v>
+      </c>
+      <c r="BL3"/>
+      <c r="BM3" t="s">
+        <v>101</v>
+      </c>
+      <c r="BN3" t="b">
         <v>0</v>
       </c>
-      <c r="BM3" t="b">
+      <c r="BO3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>203501</v>
+      <c r="A4" t="s">
+        <v>108</v>
       </c>
       <c r="B4" t="n">
-        <v>970000</v>
+        <v>207539</v>
       </c>
       <c r="C4" t="n">
-        <v>2019</v>
-      </c>
-      <c r="D4" t="s">
+        <v>284027</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4" t="s">
         <v>111</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
         <v>112</v>
       </c>
-      <c r="F4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
+        <v>110</v>
+      </c>
+      <c r="J4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" t="s">
         <v>113</v>
       </c>
-      <c r="H4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I4" t="s">
-        <v>70</v>
-      </c>
-      <c r="J4" t="s">
-        <v>71</v>
-      </c>
-      <c r="K4" t="s">
-        <v>72</v>
-      </c>
       <c r="L4" t="s">
-        <v>73</v>
-      </c>
-      <c r="M4"/>
-      <c r="N4" t="s">
-        <v>74</v>
-      </c>
-      <c r="O4" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="M4" t="s">
+        <v>114</v>
+      </c>
+      <c r="N4"/>
+      <c r="O4" t="s">
+        <v>115</v>
+      </c>
+      <c r="P4" s="1" t="n">
         <v>43923</v>
       </c>
-      <c r="P4" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>75</v>
+      <c r="Q4" t="n">
+        <v>1</v>
       </c>
       <c r="R4" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="S4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T4" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="U4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V4" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="W4" t="s">
+        <v>83</v>
+      </c>
+      <c r="X4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>165930</v>
+      </c>
+      <c r="AC4" t="s">
         <v>81</v>
       </c>
-      <c r="X4" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y4" t="s">
+      <c r="AD4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI4" t="s">
         <v>83</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>165921</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>89</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>89</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>91</v>
       </c>
       <c r="AJ4" t="s">
         <v>92</v>
       </c>
       <c r="AK4" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="AL4" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="AM4" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="AN4"/>
       <c r="AO4" t="s">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="AP4" t="s">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="AQ4" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="AR4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AS4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AT4" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="AU4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AV4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AW4"/>
       <c r="AX4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AY4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AZ4" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="BA4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="BB4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="BC4"/>
       <c r="BD4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="BE4" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="BF4" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="BG4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="BH4" t="s">
-        <v>72</v>
-      </c>
-      <c r="BI4" s="1" t="n">
-        <v>43830</v>
-      </c>
-      <c r="BJ4"/>
+        <v>75</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ4" s="1" t="n">
+        <v>43909</v>
+      </c>
       <c r="BK4" t="s">
-        <v>99</v>
-      </c>
-      <c r="BL4" t="b">
+        <v>129</v>
+      </c>
+      <c r="BL4"/>
+      <c r="BM4" t="s">
+        <v>101</v>
+      </c>
+      <c r="BN4" t="b">
         <v>0</v>
       </c>
-      <c r="BM4" t="b">
+      <c r="BO4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>203502</v>
+      <c r="A5" t="s">
+        <v>130</v>
       </c>
       <c r="B5" t="n">
-        <v>150002</v>
+        <v>203501</v>
       </c>
       <c r="C5" t="n">
+        <v>970000</v>
+      </c>
+      <c r="D5" t="n">
         <v>2019</v>
       </c>
-      <c r="D5" t="s">
-        <v>118</v>
-      </c>
       <c r="E5" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>132</v>
       </c>
       <c r="G5" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H5" t="s">
-        <v>69</v>
+        <v>134</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
-      </c>
-      <c r="M5"/>
-      <c r="N5" t="s">
-        <v>74</v>
-      </c>
-      <c r="O5" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="M5" t="s">
+        <v>76</v>
+      </c>
+      <c r="N5"/>
+      <c r="O5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P5" s="1" t="n">
         <v>43923</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
         <v>4</v>
       </c>
-      <c r="Q5" t="s">
-        <v>75</v>
-      </c>
       <c r="R5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U5" t="s">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="V5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W5" t="s">
+        <v>137</v>
+      </c>
+      <c r="X5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>165921</v>
+      </c>
+      <c r="AC5" t="s">
         <v>81</v>
       </c>
-      <c r="X5" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>165923</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>86</v>
-      </c>
       <c r="AD5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AE5" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="AF5" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="AG5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH5" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="AI5" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AJ5" t="s">
         <v>92</v>
       </c>
       <c r="AK5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AL5" t="s">
         <v>93</v>
       </c>
       <c r="AM5" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="AN5"/>
       <c r="AO5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AP5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AQ5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AR5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AS5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AT5" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="AU5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AV5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AW5"/>
       <c r="AX5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AY5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AZ5" t="s">
         <v>96</v>
       </c>
       <c r="BA5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="BB5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="BC5"/>
       <c r="BD5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="BE5" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="BF5" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="BG5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="BH5" t="s">
-        <v>72</v>
-      </c>
-      <c r="BI5" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ5" s="1" t="n">
         <v>43830</v>
       </c>
-      <c r="BJ5"/>
       <c r="BK5" t="s">
-        <v>99</v>
-      </c>
-      <c r="BL5" t="b">
+        <v>100</v>
+      </c>
+      <c r="BL5"/>
+      <c r="BM5" t="s">
+        <v>101</v>
+      </c>
+      <c r="BN5" t="b">
         <v>0</v>
       </c>
-      <c r="BM5" t="b">
+      <c r="BO5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>203590</v>
+      <c r="A6" t="s">
+        <v>130</v>
       </c>
       <c r="B6" t="n">
-        <v>195001</v>
+        <v>218721</v>
       </c>
       <c r="C6" t="n">
+        <v>4593640</v>
+      </c>
+      <c r="D6" t="n">
         <v>2020</v>
       </c>
-      <c r="D6" t="s">
-        <v>127</v>
-      </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>145</v>
       </c>
       <c r="F6" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="G6" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="H6" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="I6" t="s">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="J6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K6" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="L6" t="s">
-        <v>73</v>
-      </c>
-      <c r="M6"/>
-      <c r="N6" t="s">
-        <v>74</v>
-      </c>
-      <c r="O6" s="1" t="n">
-        <v>43923</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>75</v>
+        <v>149</v>
+      </c>
+      <c r="M6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N6" t="n">
+        <v>214986</v>
+      </c>
+      <c r="O6" t="s">
+        <v>115</v>
+      </c>
+      <c r="P6" s="1" t="n">
+        <v>44093</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
       </c>
       <c r="R6" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="S6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T6" t="s">
+        <v>150</v>
+      </c>
+      <c r="U6" t="s">
+        <v>81</v>
+      </c>
+      <c r="V6" t="s">
+        <v>151</v>
+      </c>
+      <c r="W6" t="s">
+        <v>83</v>
+      </c>
+      <c r="X6" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z6" t="s">
         <v>86</v>
       </c>
-      <c r="U6" t="s">
-        <v>79</v>
-      </c>
-      <c r="V6" t="s">
+      <c r="AA6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>165921</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG6" t="s">
         <v>91</v>
       </c>
-      <c r="W6" t="s">
-        <v>81</v>
-      </c>
-      <c r="X6" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>165926</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>133</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>134</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>90</v>
-      </c>
       <c r="AH6" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AI6" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AJ6" t="s">
         <v>92</v>
       </c>
       <c r="AK6" t="s">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="AL6" t="s">
-        <v>93</v>
+        <v>152</v>
       </c>
       <c r="AM6" t="s">
-        <v>94</v>
-      </c>
-      <c r="AN6"/>
+        <v>153</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>154</v>
+      </c>
       <c r="AO6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AP6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AQ6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AR6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AS6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AT6" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="AU6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AV6" t="s">
-        <v>72</v>
-      </c>
-      <c r="AW6"/>
+        <v>75</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0.849</v>
+      </c>
       <c r="AX6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AY6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AZ6" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="BA6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="BB6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="BC6"/>
       <c r="BD6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="BE6" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="BF6" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="BG6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="BH6" t="s">
-        <v>72</v>
-      </c>
-      <c r="BI6" s="1" t="n">
-        <v>43833</v>
-      </c>
-      <c r="BJ6"/>
+        <v>75</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ6" s="1" t="n">
+        <v>44061</v>
+      </c>
       <c r="BK6" t="s">
-        <v>99</v>
-      </c>
-      <c r="BL6" t="b">
+        <v>156</v>
+      </c>
+      <c r="BL6"/>
+      <c r="BM6" t="s">
+        <v>101</v>
+      </c>
+      <c r="BN6" t="b">
         <v>0</v>
       </c>
-      <c r="BM6" t="b">
+      <c r="BO6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>203591</v>
+      <c r="A7" t="s">
+        <v>130</v>
       </c>
       <c r="B7" t="n">
-        <v>555001</v>
+        <v>218722</v>
       </c>
       <c r="C7" t="n">
+        <v>588928</v>
+      </c>
+      <c r="D7" t="n">
         <v>2020</v>
       </c>
-      <c r="D7" t="s">
-        <v>138</v>
-      </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>157</v>
       </c>
       <c r="F7" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="G7" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="H7" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="I7" t="s">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="J7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K7" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="L7" t="s">
-        <v>73</v>
-      </c>
-      <c r="M7"/>
-      <c r="N7" t="s">
-        <v>74</v>
-      </c>
-      <c r="O7" s="1" t="n">
-        <v>43923</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>75</v>
+        <v>149</v>
+      </c>
+      <c r="M7" t="s">
+        <v>76</v>
+      </c>
+      <c r="N7" t="n">
+        <v>214987</v>
+      </c>
+      <c r="O7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P7" s="1" t="n">
+        <v>44093</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
       </c>
       <c r="R7" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="S7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T7" t="s">
+        <v>150</v>
+      </c>
+      <c r="U7" t="s">
+        <v>81</v>
+      </c>
+      <c r="V7" t="s">
+        <v>151</v>
+      </c>
+      <c r="W7" t="s">
+        <v>83</v>
+      </c>
+      <c r="X7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z7" t="s">
         <v>86</v>
       </c>
-      <c r="U7" t="s">
-        <v>79</v>
-      </c>
-      <c r="V7" t="s">
+      <c r="AA7" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB7"/>
+      <c r="AC7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG7" t="s">
         <v>91</v>
       </c>
-      <c r="W7" t="s">
-        <v>81</v>
-      </c>
-      <c r="X7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>165927</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>133</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>140</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>90</v>
-      </c>
       <c r="AH7" t="s">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c r="AI7" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AJ7" t="s">
         <v>92</v>
       </c>
       <c r="AK7" t="s">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="AL7" t="s">
-        <v>93</v>
+        <v>152</v>
       </c>
       <c r="AM7" t="s">
-        <v>94</v>
-      </c>
-      <c r="AN7"/>
+        <v>153</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>158</v>
+      </c>
       <c r="AO7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AP7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AQ7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AR7" t="s">
-        <v>72</v>
+        <v>159</v>
       </c>
       <c r="AS7" t="s">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="AT7" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="AU7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AV7" t="s">
-        <v>72</v>
-      </c>
-      <c r="AW7"/>
+        <v>75</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0.849</v>
+      </c>
       <c r="AX7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AY7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AZ7" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="BA7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="BB7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="BC7"/>
       <c r="BD7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="BE7" t="s">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="BF7" t="s">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="BG7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="BH7" t="s">
-        <v>72</v>
-      </c>
-      <c r="BI7" s="1" t="n">
-        <v>43833</v>
-      </c>
-      <c r="BJ7"/>
+        <v>75</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ7" s="1" t="n">
+        <v>44061</v>
+      </c>
       <c r="BK7" t="s">
-        <v>99</v>
-      </c>
-      <c r="BL7" t="b">
+        <v>156</v>
+      </c>
+      <c r="BL7"/>
+      <c r="BM7" t="s">
+        <v>101</v>
+      </c>
+      <c r="BN7" t="b">
         <v>0</v>
       </c>
-      <c r="BM7" t="b">
+      <c r="BO7" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>207539</v>
+      <c r="A8" t="s">
+        <v>130</v>
       </c>
       <c r="B8" t="n">
-        <v>284027</v>
-      </c>
-      <c r="C8"/>
-      <c r="D8" t="s">
-        <v>144</v>
+        <v>222612</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5174644</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2020</v>
       </c>
       <c r="E8" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="F8" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="G8" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="H8" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="I8" t="s">
-        <v>70</v>
+        <v>164</v>
       </c>
       <c r="J8" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="K8" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="L8" t="s">
-        <v>149</v>
-      </c>
-      <c r="M8"/>
-      <c r="N8" t="s">
-        <v>150</v>
-      </c>
-      <c r="O8" s="1" t="n">
-        <v>43923</v>
-      </c>
-      <c r="P8" t="n">
+        <v>165</v>
+      </c>
+      <c r="M8" t="s">
+        <v>76</v>
+      </c>
+      <c r="N8"/>
+      <c r="O8" t="s">
+        <v>77</v>
+      </c>
+      <c r="P8" s="1" t="n">
+        <v>44145</v>
+      </c>
+      <c r="Q8" t="n">
         <v>1</v>
       </c>
-      <c r="Q8" t="s">
-        <v>151</v>
-      </c>
       <c r="R8" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="S8" t="s">
-        <v>152</v>
+        <v>79</v>
       </c>
       <c r="T8" t="s">
+        <v>166</v>
+      </c>
+      <c r="U8" t="s">
+        <v>81</v>
+      </c>
+      <c r="V8" t="s">
+        <v>167</v>
+      </c>
+      <c r="W8" t="s">
+        <v>83</v>
+      </c>
+      <c r="X8" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z8" t="s">
         <v>86</v>
       </c>
-      <c r="U8" t="s">
-        <v>153</v>
-      </c>
-      <c r="V8" t="s">
+      <c r="AA8" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>165921</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG8" t="s">
         <v>91</v>
       </c>
-      <c r="W8" t="s">
-        <v>81</v>
-      </c>
-      <c r="X8" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>165930</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>155</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>105</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>90</v>
-      </c>
       <c r="AH8" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="AI8" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AJ8" t="s">
         <v>92</v>
       </c>
       <c r="AK8" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="AL8" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="AM8" t="s">
-        <v>156</v>
-      </c>
-      <c r="AN8"/>
+        <v>168</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>169</v>
+      </c>
       <c r="AO8" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="AP8" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="AQ8" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="AR8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AS8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AT8" t="s">
-        <v>72</v>
+        <v>173</v>
       </c>
       <c r="AU8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AV8" t="s">
-        <v>72</v>
-      </c>
-      <c r="AW8"/>
+        <v>75</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0.773</v>
+      </c>
       <c r="AX8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AY8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AZ8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="BA8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="BB8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="BC8"/>
       <c r="BD8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="BE8" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="BF8" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="BG8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="BH8" t="s">
-        <v>72</v>
-      </c>
-      <c r="BI8" s="1" t="n">
-        <v>43909</v>
-      </c>
-      <c r="BJ8"/>
+        <v>75</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ8" s="1" t="n">
+        <v>44097</v>
+      </c>
       <c r="BK8" t="s">
-        <v>99</v>
-      </c>
-      <c r="BL8" t="b">
+        <v>156</v>
+      </c>
+      <c r="BL8"/>
+      <c r="BM8" t="s">
+        <v>101</v>
+      </c>
+      <c r="BN8" t="b">
         <v>0</v>
       </c>
-      <c r="BM8" t="b">
+      <c r="BO8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>218721</v>
+      <c r="A9" t="s">
+        <v>174</v>
       </c>
       <c r="B9" t="n">
-        <v>4593640</v>
+        <v>203500</v>
       </c>
       <c r="C9" t="n">
-        <v>2020</v>
-      </c>
-      <c r="D9" t="s">
-        <v>160</v>
+        <v>300001</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2019</v>
       </c>
       <c r="E9" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="F9" t="s">
-        <v>161</v>
+        <v>69</v>
       </c>
       <c r="G9" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="H9" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="I9" t="s">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="J9" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="K9" t="s">
-        <v>164</v>
+        <v>74</v>
       </c>
       <c r="L9" t="s">
-        <v>73</v>
-      </c>
-      <c r="M9" t="n">
-        <v>214986</v>
-      </c>
-      <c r="N9" t="s">
-        <v>150</v>
-      </c>
-      <c r="O9" s="1" t="n">
-        <v>44093</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>151</v>
+        <v>75</v>
+      </c>
+      <c r="M9" t="s">
+        <v>76</v>
+      </c>
+      <c r="N9"/>
+      <c r="O9" t="s">
+        <v>77</v>
+      </c>
+      <c r="P9" s="1" t="n">
+        <v>43923</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
       </c>
       <c r="R9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S9" t="s">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="T9" t="s">
+        <v>80</v>
+      </c>
+      <c r="U9" t="s">
+        <v>136</v>
+      </c>
+      <c r="V9" t="s">
+        <v>82</v>
+      </c>
+      <c r="W9" t="s">
+        <v>137</v>
+      </c>
+      <c r="X9" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z9" t="s">
         <v>86</v>
       </c>
-      <c r="U9" t="s">
-        <v>166</v>
-      </c>
-      <c r="V9" t="s">
+      <c r="AA9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>165930</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>121</v>
+      </c>
+      <c r="AG9" t="s">
         <v>91</v>
       </c>
-      <c r="W9" t="s">
-        <v>81</v>
-      </c>
-      <c r="X9" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y9" t="s">
+      <c r="AH9" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI9" t="s">
         <v>83</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>165921</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>89</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>89</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>91</v>
       </c>
       <c r="AJ9" t="s">
         <v>92</v>
       </c>
       <c r="AK9" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="AL9" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="AM9" t="s">
-        <v>168</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>169</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="AN9"/>
       <c r="AO9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AP9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AQ9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AR9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AS9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AT9" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="AU9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AV9" t="s">
-        <v>72</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>0.849</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AW9"/>
       <c r="AX9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AY9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AZ9" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="BA9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="BB9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="BC9"/>
       <c r="BD9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="BE9" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="BF9" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="BG9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="BH9" t="s">
-        <v>72</v>
-      </c>
-      <c r="BI9" s="1" t="n">
-        <v>44061</v>
-      </c>
-      <c r="BJ9"/>
+        <v>75</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ9" s="1" t="n">
+        <v>43830</v>
+      </c>
       <c r="BK9" t="s">
-        <v>99</v>
-      </c>
-      <c r="BL9" t="b">
+        <v>100</v>
+      </c>
+      <c r="BL9"/>
+      <c r="BM9" t="s">
+        <v>101</v>
+      </c>
+      <c r="BN9" t="b">
         <v>0</v>
       </c>
-      <c r="BM9" t="b">
+      <c r="BO9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>218722</v>
+      <c r="A10" t="s">
+        <v>180</v>
       </c>
       <c r="B10" t="n">
-        <v>588928</v>
+        <v>203502</v>
       </c>
       <c r="C10" t="n">
-        <v>2020</v>
-      </c>
-      <c r="D10" t="s">
-        <v>171</v>
+        <v>150002</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2019</v>
       </c>
       <c r="E10" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="F10" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="G10" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="H10" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="I10" t="s">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="J10" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="K10" t="s">
-        <v>164</v>
+        <v>74</v>
       </c>
       <c r="L10" t="s">
-        <v>73</v>
-      </c>
-      <c r="M10" t="n">
-        <v>214987</v>
-      </c>
-      <c r="N10" t="s">
-        <v>150</v>
-      </c>
-      <c r="O10" s="1" t="n">
-        <v>44093</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>151</v>
+        <v>75</v>
+      </c>
+      <c r="M10" t="s">
+        <v>76</v>
+      </c>
+      <c r="N10"/>
+      <c r="O10" t="s">
+        <v>77</v>
+      </c>
+      <c r="P10" s="1" t="n">
+        <v>43923</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
       </c>
       <c r="R10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S10" t="s">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="T10" t="s">
+        <v>80</v>
+      </c>
+      <c r="U10" t="s">
+        <v>136</v>
+      </c>
+      <c r="V10" t="s">
+        <v>82</v>
+      </c>
+      <c r="W10" t="s">
+        <v>137</v>
+      </c>
+      <c r="X10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z10" t="s">
         <v>86</v>
       </c>
-      <c r="U10" t="s">
-        <v>166</v>
-      </c>
-      <c r="V10" t="s">
+      <c r="AA10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>165923</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG10" t="s">
         <v>91</v>
       </c>
-      <c r="W10" t="s">
-        <v>81</v>
-      </c>
-      <c r="X10" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB10"/>
-      <c r="AC10" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>90</v>
-      </c>
       <c r="AH10" t="s">
-        <v>72</v>
+        <v>185</v>
       </c>
       <c r="AI10" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AJ10" t="s">
         <v>92</v>
       </c>
       <c r="AK10" t="s">
-        <v>166</v>
+        <v>82</v>
       </c>
       <c r="AL10" t="s">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c r="AM10" t="s">
-        <v>168</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>172</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="AN10"/>
       <c r="AO10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AP10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AQ10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AR10" t="s">
-        <v>173</v>
+        <v>75</v>
       </c>
       <c r="AS10" t="s">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="AT10" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="AU10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AV10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>0.849</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AW10"/>
       <c r="AX10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AY10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AZ10" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="BA10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="BB10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="BC10"/>
       <c r="BD10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="BE10" t="s">
-        <v>72</v>
+        <v>187</v>
       </c>
       <c r="BF10" t="s">
-        <v>72</v>
+        <v>188</v>
       </c>
       <c r="BG10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="BH10" t="s">
-        <v>72</v>
-      </c>
-      <c r="BI10" s="1" t="n">
-        <v>44061</v>
-      </c>
-      <c r="BJ10"/>
+        <v>75</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ10" s="1" t="n">
+        <v>43830</v>
+      </c>
       <c r="BK10" t="s">
-        <v>99</v>
-      </c>
-      <c r="BL10" t="b">
+        <v>100</v>
+      </c>
+      <c r="BL10"/>
+      <c r="BM10" t="s">
+        <v>101</v>
+      </c>
+      <c r="BN10" t="b">
         <v>0</v>
       </c>
-      <c r="BM10" t="b">
+      <c r="BO10" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>222612</v>
+      <c r="A11" t="s">
+        <v>189</v>
       </c>
       <c r="B11" t="n">
-        <v>5174644</v>
+        <v>203499</v>
       </c>
       <c r="C11" t="n">
-        <v>2020</v>
-      </c>
-      <c r="D11" t="s">
-        <v>175</v>
+        <v>879992</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2019</v>
       </c>
       <c r="E11" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="F11" t="s">
-        <v>176</v>
+        <v>69</v>
       </c>
       <c r="G11" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="H11" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="I11" t="s">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="J11" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="K11" t="s">
-        <v>179</v>
+        <v>74</v>
       </c>
       <c r="L11" t="s">
-        <v>73</v>
-      </c>
-      <c r="M11"/>
-      <c r="N11" t="s">
-        <v>74</v>
-      </c>
-      <c r="O11" s="1" t="n">
-        <v>44145</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>151</v>
+        <v>75</v>
+      </c>
+      <c r="M11" t="s">
+        <v>76</v>
+      </c>
+      <c r="N11"/>
+      <c r="O11" t="s">
+        <v>77</v>
+      </c>
+      <c r="P11" s="1" t="n">
+        <v>43923</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
       </c>
       <c r="R11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S11" t="s">
-        <v>180</v>
+        <v>79</v>
       </c>
       <c r="T11" t="s">
+        <v>80</v>
+      </c>
+      <c r="U11" t="s">
+        <v>136</v>
+      </c>
+      <c r="V11" t="s">
+        <v>82</v>
+      </c>
+      <c r="W11" t="s">
+        <v>137</v>
+      </c>
+      <c r="X11" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z11" t="s">
         <v>86</v>
       </c>
-      <c r="U11" t="s">
-        <v>181</v>
-      </c>
-      <c r="V11" t="s">
+      <c r="AA11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>165918</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>192</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG11" t="s">
         <v>91</v>
       </c>
-      <c r="W11" t="s">
-        <v>81</v>
-      </c>
-      <c r="X11" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y11" t="s">
+      <c r="AH11" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI11" t="s">
         <v>83</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>165921</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>89</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>89</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>91</v>
       </c>
       <c r="AJ11" t="s">
         <v>92</v>
       </c>
       <c r="AK11" t="s">
-        <v>181</v>
+        <v>82</v>
       </c>
       <c r="AL11" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="AM11" t="s">
-        <v>182</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>183</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="AN11"/>
       <c r="AO11" t="s">
-        <v>184</v>
+        <v>75</v>
       </c>
       <c r="AP11" t="s">
-        <v>185</v>
+        <v>75</v>
       </c>
       <c r="AQ11" t="s">
-        <v>186</v>
+        <v>75</v>
       </c>
       <c r="AR11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AS11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AT11" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="AU11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AV11" t="s">
-        <v>72</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>0.773</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AW11"/>
       <c r="AX11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AY11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AZ11" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="BA11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="BB11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="BC11"/>
       <c r="BD11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="BE11" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="BF11" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="BG11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="BH11" t="s">
-        <v>72</v>
-      </c>
-      <c r="BI11" s="1" t="n">
-        <v>44097</v>
-      </c>
-      <c r="BJ11"/>
+        <v>75</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ11" s="1" t="n">
+        <v>43830</v>
+      </c>
       <c r="BK11" t="s">
-        <v>99</v>
-      </c>
-      <c r="BL11" t="b">
+        <v>100</v>
+      </c>
+      <c r="BL11"/>
+      <c r="BM11" t="s">
+        <v>101</v>
+      </c>
+      <c r="BN11" t="b">
         <v>0</v>
       </c>
-      <c r="BM11" t="b">
+      <c r="BO11" t="b">
         <v>0</v>
       </c>
     </row>
